--- a/products/7.xlsx
+++ b/products/7.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -16,25 +16,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Альпийские камни 0.5</t>
   </si>
   <si>
     <t>Альпийские камни 0.33</t>
   </si>
-  <si>
-    <t>Бельгийский шоколад 2 плитки</t>
-  </si>
-  <si>
-    <t>Бельгийский шоколад 3 плитки</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +66,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -150,6 +149,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -184,6 +184,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -359,19 +360,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.875" customWidth="1"/>
+    <col min="1" max="1" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -382,7 +383,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -391,28 +392,6 @@
       </c>
       <c r="C2">
         <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1400</v>
-      </c>
-      <c r="C3">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" hidden="1">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1650</v>
-      </c>
-      <c r="C4">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -422,12 +401,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -435,12 +414,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
